--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H2">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J2">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.635729666666667</v>
+        <v>0.01046566666666667</v>
       </c>
       <c r="N2">
-        <v>4.907189</v>
+        <v>0.031397</v>
       </c>
       <c r="O2">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="P2">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="Q2">
-        <v>214.208334518227</v>
+        <v>0.9798774257701112</v>
       </c>
       <c r="R2">
-        <v>1927.875010664043</v>
+        <v>8.818896831930999</v>
       </c>
       <c r="S2">
-        <v>0.2836170957420115</v>
+        <v>0.002436848340791385</v>
       </c>
       <c r="T2">
-        <v>0.2836170957420115</v>
+        <v>0.002436848340791385</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H3">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J3">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.51038</v>
       </c>
       <c r="O3">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711777</v>
       </c>
       <c r="P3">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711776</v>
       </c>
       <c r="Q3">
-        <v>153.23490766834</v>
+        <v>109.5563944923045</v>
       </c>
       <c r="R3">
-        <v>1379.11416901506</v>
+        <v>986.00755043074</v>
       </c>
       <c r="S3">
-        <v>0.2028867811186491</v>
+        <v>0.2724548102859274</v>
       </c>
       <c r="T3">
-        <v>0.2028867811186491</v>
+        <v>0.2724548102859273</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>130.955829</v>
+        <v>93.62780766666667</v>
       </c>
       <c r="H4">
-        <v>392.867487</v>
+        <v>280.883423</v>
       </c>
       <c r="I4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="J4">
-        <v>0.5336535908353144</v>
+        <v>0.3228593149748609</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,28 +676,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.2719306666666667</v>
+        <v>0.2060093333333333</v>
       </c>
       <c r="N4">
-        <v>0.8157920000000001</v>
+        <v>0.618028</v>
       </c>
       <c r="O4">
-        <v>0.08835265944870997</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="P4">
-        <v>0.08835265944870996</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="Q4">
-        <v>35.61090588385601</v>
+        <v>19.28820223887156</v>
       </c>
       <c r="R4">
-        <v>320.498152954704</v>
+        <v>173.593820149844</v>
       </c>
       <c r="S4">
-        <v>0.04714971397465374</v>
+        <v>0.04796765634814211</v>
       </c>
       <c r="T4">
-        <v>0.04714971397465374</v>
+        <v>0.04796765634814211</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
         <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J5">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.635729666666667</v>
+        <v>0.01046566666666667</v>
       </c>
       <c r="N5">
-        <v>4.907189</v>
+        <v>0.031397</v>
       </c>
       <c r="O5">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="P5">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="Q5">
-        <v>108.6049418674967</v>
+        <v>0.6948722292566666</v>
       </c>
       <c r="R5">
-        <v>977.4444768074701</v>
+        <v>6.25385006331</v>
       </c>
       <c r="S5">
-        <v>0.1437956103107111</v>
+        <v>0.00172807148567109</v>
       </c>
       <c r="T5">
-        <v>0.1437956103107111</v>
+        <v>0.00172807148567109</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
         <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J6">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.51038</v>
       </c>
       <c r="O6">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711777</v>
       </c>
       <c r="P6">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711776</v>
       </c>
       <c r="Q6">
-        <v>77.69103978526668</v>
+        <v>77.69103978526667</v>
       </c>
       <c r="R6">
-        <v>699.2193580674001</v>
+        <v>699.2193580674</v>
       </c>
       <c r="S6">
-        <v>0.1028648447252621</v>
+        <v>0.1932091467933268</v>
       </c>
       <c r="T6">
-        <v>0.1028648447252621</v>
+        <v>0.1932091467933267</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>66.39541000000001</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
         <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="J7">
-        <v>0.2705656497465489</v>
+        <v>0.228953097635189</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -862,28 +862,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2719306666666667</v>
+        <v>0.2060093333333333</v>
       </c>
       <c r="N7">
-        <v>0.8157920000000001</v>
+        <v>0.618028</v>
       </c>
       <c r="O7">
-        <v>0.08835265944870997</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="P7">
-        <v>0.08835265944870996</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="Q7">
-        <v>18.05494810490667</v>
+        <v>13.67807415049333</v>
       </c>
       <c r="R7">
-        <v>162.49453294416</v>
+        <v>123.10266735444</v>
       </c>
       <c r="S7">
-        <v>0.02390519471057578</v>
+        <v>0.03401587935619111</v>
       </c>
       <c r="T7">
-        <v>0.02390519471057577</v>
+        <v>0.03401587935619111</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H8">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J8">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.635729666666667</v>
+        <v>0.01046566666666667</v>
       </c>
       <c r="N8">
-        <v>4.907189</v>
+        <v>0.031397</v>
       </c>
       <c r="O8">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="P8">
-        <v>0.5314629201652572</v>
+        <v>0.007547709568116775</v>
       </c>
       <c r="Q8">
-        <v>78.58631727752166</v>
+        <v>1.360248501512111</v>
       </c>
       <c r="R8">
-        <v>707.2768554976949</v>
+        <v>12.242236513609</v>
       </c>
       <c r="S8">
-        <v>0.1040502141125346</v>
+        <v>0.003382789741654301</v>
       </c>
       <c r="T8">
-        <v>0.1040502141125346</v>
+        <v>0.003382789741654301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H9">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J9">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.51038</v>
       </c>
       <c r="O9">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711777</v>
       </c>
       <c r="P9">
-        <v>0.3801844203860328</v>
+        <v>0.8438809030711776</v>
       </c>
       <c r="Q9">
-        <v>56.21707997076667</v>
+        <v>152.0842480089844</v>
       </c>
       <c r="R9">
-        <v>505.9537197369</v>
+        <v>1368.75823208086</v>
       </c>
       <c r="S9">
-        <v>0.07443279454212164</v>
+        <v>0.3782169459919236</v>
       </c>
       <c r="T9">
-        <v>0.07443279454212162</v>
+        <v>0.3782169459919235</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.043585</v>
+        <v>129.9724656666667</v>
       </c>
       <c r="H10">
-        <v>144.130755</v>
+        <v>389.917397</v>
       </c>
       <c r="I10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="J10">
-        <v>0.1957807594181367</v>
+        <v>0.4481875873899502</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1048,28 +1048,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.2719306666666667</v>
+        <v>0.2060093333333333</v>
       </c>
       <c r="N10">
-        <v>0.8157920000000001</v>
+        <v>0.618028</v>
       </c>
       <c r="O10">
-        <v>0.08835265944870997</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="P10">
-        <v>0.08835265944870996</v>
+        <v>0.1485713873607056</v>
       </c>
       <c r="Q10">
-        <v>13.06452409810667</v>
+        <v>26.77554100367956</v>
       </c>
       <c r="R10">
-        <v>117.58071688296</v>
+        <v>240.979869033116</v>
       </c>
       <c r="S10">
-        <v>0.01729775076348045</v>
+        <v>0.06658785165637239</v>
       </c>
       <c r="T10">
-        <v>0.01729775076348045</v>
+        <v>0.06658785165637239</v>
       </c>
     </row>
   </sheetData>
